--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4452,28 +4452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.2399649865414</v>
+        <v>171.7415154815548</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.0412864606745</v>
+        <v>234.9843181826829</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.3812057879964</v>
+        <v>212.5577446579575</v>
       </c>
       <c r="AD2" t="n">
-        <v>135239.9649865414</v>
+        <v>171741.5154815548</v>
       </c>
       <c r="AE2" t="n">
-        <v>185041.2864606745</v>
+        <v>234984.3181826829</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.460241668467762e-06</v>
+        <v>4.552091213433707e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.178385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>167381.2057879964</v>
+        <v>212557.7446579575</v>
       </c>
     </row>
     <row r="3">
@@ -4558,28 +4558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.7992994841639</v>
+        <v>134.190590220071</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.2322455573896</v>
+        <v>183.6054856100431</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.8942908937142</v>
+        <v>166.0824357553897</v>
       </c>
       <c r="AD3" t="n">
-        <v>109799.2994841639</v>
+        <v>134190.590220071</v>
       </c>
       <c r="AE3" t="n">
-        <v>150232.2455573896</v>
+        <v>183605.4856100431</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.97977696245417e-06</v>
+        <v>5.513367529145054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.09765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>135894.2908937142</v>
+        <v>166082.4357553897</v>
       </c>
     </row>
     <row r="4">
@@ -4664,28 +4664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.08595671422917</v>
+        <v>130.5874177006916</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.7325567558179</v>
+        <v>178.675466008278</v>
       </c>
       <c r="AC4" t="n">
-        <v>116.4465022163549</v>
+        <v>161.6229303050895</v>
       </c>
       <c r="AD4" t="n">
-        <v>94085.95671422916</v>
+        <v>130587.4177006916</v>
       </c>
       <c r="AE4" t="n">
-        <v>128732.5567558179</v>
+        <v>178675.466008278</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.16613556552666e-06</v>
+        <v>5.858179736200468e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.798177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>116446.5022163549</v>
+        <v>161622.9303050895</v>
       </c>
     </row>
     <row r="5">
@@ -4770,28 +4770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>92.16984143045589</v>
+        <v>128.6713024169183</v>
       </c>
       <c r="AB5" t="n">
-        <v>126.1108432915203</v>
+        <v>176.0537525439804</v>
       </c>
       <c r="AC5" t="n">
-        <v>114.0750014054911</v>
+        <v>159.2514294942257</v>
       </c>
       <c r="AD5" t="n">
-        <v>92169.84143045588</v>
+        <v>128671.3024169183</v>
       </c>
       <c r="AE5" t="n">
-        <v>126110.8432915203</v>
+        <v>176053.7525439804</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.272176038191781e-06</v>
+        <v>6.054382373556775e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.641927083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>114075.0014054911</v>
+        <v>159251.4294942257</v>
       </c>
     </row>
     <row r="6">
@@ -4876,28 +4876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.09470009195843</v>
+        <v>115.5712421738861</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.6397874803006</v>
+        <v>158.1296721856033</v>
       </c>
       <c r="AC6" t="n">
-        <v>112.7443410962539</v>
+        <v>143.0379982086416</v>
       </c>
       <c r="AD6" t="n">
-        <v>91094.70009195842</v>
+        <v>115571.2421738861</v>
       </c>
       <c r="AE6" t="n">
-        <v>124639.7874803006</v>
+        <v>158129.6721856033</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.329876246958715e-06</v>
+        <v>6.161142866522829e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.563802083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>112744.3410962539</v>
+        <v>143037.9982086416</v>
       </c>
     </row>
     <row r="7">
@@ -4982,28 +4982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>90.61416375093032</v>
+        <v>115.090705832858</v>
       </c>
       <c r="AB7" t="n">
-        <v>123.9822964587391</v>
+        <v>157.4721811640418</v>
       </c>
       <c r="AC7" t="n">
-        <v>112.1496000949956</v>
+        <v>142.4432572073833</v>
       </c>
       <c r="AD7" t="n">
-        <v>90614.16375093031</v>
+        <v>115090.705832858</v>
       </c>
       <c r="AE7" t="n">
-        <v>123982.2964587391</v>
+        <v>157472.1811640418</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.352867632733564e-06</v>
+        <v>6.203682949682847e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH7" t="n">
-        <v>112149.6000949956</v>
+        <v>142443.2572073833</v>
       </c>
     </row>
     <row r="8">
@@ -5088,28 +5088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>89.91075384858067</v>
+        <v>114.2167037299161</v>
       </c>
       <c r="AB8" t="n">
-        <v>123.01985999809</v>
+        <v>156.2763329285459</v>
       </c>
       <c r="AC8" t="n">
-        <v>111.2790172193625</v>
+        <v>141.3615390490992</v>
       </c>
       <c r="AD8" t="n">
-        <v>89910.75384858067</v>
+        <v>114216.7037299161</v>
       </c>
       <c r="AE8" t="n">
-        <v>123019.85999809</v>
+        <v>156276.3329285459</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.381601029575027e-06</v>
+        <v>6.256847256657448e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.4921875</v>
       </c>
       <c r="AH8" t="n">
-        <v>111279.0172193625</v>
+        <v>141361.5390490992</v>
       </c>
     </row>
     <row r="9">
@@ -5194,28 +5194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>89.31425550170101</v>
+        <v>113.6202053830365</v>
       </c>
       <c r="AB9" t="n">
-        <v>122.2037046442399</v>
+        <v>155.4601775746958</v>
       </c>
       <c r="AC9" t="n">
-        <v>110.5407545870023</v>
+        <v>140.623276416739</v>
       </c>
       <c r="AD9" t="n">
-        <v>89314.25550170102</v>
+        <v>113620.2053830365</v>
       </c>
       <c r="AE9" t="n">
-        <v>122203.7046442399</v>
+        <v>155460.1775746958</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.411524843344934e-06</v>
+        <v>6.312214146617999e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.453125</v>
       </c>
       <c r="AH9" t="n">
-        <v>110540.7545870023</v>
+        <v>140623.276416739</v>
       </c>
     </row>
     <row r="10">
@@ -5300,28 +5300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>88.47722937650364</v>
+        <v>112.7831792578391</v>
       </c>
       <c r="AB10" t="n">
-        <v>121.058448572759</v>
+        <v>154.3149215032149</v>
       </c>
       <c r="AC10" t="n">
-        <v>109.5048001476062</v>
+        <v>139.5873219773429</v>
       </c>
       <c r="AD10" t="n">
-        <v>88477.22937650364</v>
+        <v>112783.1792578391</v>
       </c>
       <c r="AE10" t="n">
-        <v>121058.448572759</v>
+        <v>154314.9215032149</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.442429000467676e-06</v>
+        <v>6.369394928449333e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.4140625</v>
       </c>
       <c r="AH10" t="n">
-        <v>109504.8001476062</v>
+        <v>139587.3219773429</v>
       </c>
     </row>
     <row r="11">
@@ -5406,28 +5406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>88.37461636172412</v>
+        <v>112.6805662430596</v>
       </c>
       <c r="AB11" t="n">
-        <v>120.918048918971</v>
+        <v>154.1745218494269</v>
       </c>
       <c r="AC11" t="n">
-        <v>109.3778000397235</v>
+        <v>139.4603218694602</v>
       </c>
       <c r="AD11" t="n">
-        <v>88374.61636172413</v>
+        <v>112680.5662430596</v>
       </c>
       <c r="AE11" t="n">
-        <v>120918.048918971</v>
+        <v>154174.5218494269</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.444949883374969e-06</v>
+        <v>6.374059221831345e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.4140625</v>
       </c>
       <c r="AH11" t="n">
-        <v>109377.8000397235</v>
+        <v>139460.3218694602</v>
       </c>
     </row>
     <row r="12">
@@ -5512,28 +5512,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>87.85885078492224</v>
+        <v>112.1648006662577</v>
       </c>
       <c r="AB12" t="n">
-        <v>120.2123557028196</v>
+        <v>153.4688286332755</v>
       </c>
       <c r="AC12" t="n">
-        <v>108.7394571936748</v>
+        <v>138.8219790234115</v>
       </c>
       <c r="AD12" t="n">
-        <v>87858.85078492224</v>
+        <v>112164.8006662577</v>
       </c>
       <c r="AE12" t="n">
-        <v>120212.3557028196</v>
+        <v>153468.8286332755</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.447937596450279e-06</v>
+        <v>6.379587273247062e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.407552083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>108739.4571936748</v>
+        <v>138821.9790234115</v>
       </c>
     </row>
     <row r="13">
@@ -5618,28 +5618,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>87.21632726826526</v>
+        <v>111.5222771496007</v>
       </c>
       <c r="AB13" t="n">
-        <v>119.333226681193</v>
+        <v>152.5896996116489</v>
       </c>
       <c r="AC13" t="n">
-        <v>107.9442310120066</v>
+        <v>138.0267528417433</v>
       </c>
       <c r="AD13" t="n">
-        <v>87216.32726826526</v>
+        <v>111522.2771496007</v>
       </c>
       <c r="AE13" t="n">
-        <v>119333.226681193</v>
+        <v>152589.6996116489</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.479191876199035e-06</v>
+        <v>6.437415873603676e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.368489583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>107944.2310120066</v>
+        <v>138026.7528417433</v>
       </c>
     </row>
     <row r="14">
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>87.10767858741649</v>
+        <v>111.413628468752</v>
       </c>
       <c r="AB14" t="n">
-        <v>119.1845687628143</v>
+        <v>152.4410416932702</v>
       </c>
       <c r="AC14" t="n">
-        <v>107.8097607967152</v>
+        <v>137.8922826264519</v>
       </c>
       <c r="AD14" t="n">
-        <v>87107.67858741649</v>
+        <v>111413.628468752</v>
       </c>
       <c r="AE14" t="n">
-        <v>119184.5687628143</v>
+        <v>152441.0416932702</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.474873697144875e-06</v>
+        <v>6.429426111791896e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH14" t="n">
-        <v>107809.7607967152</v>
+        <v>137892.2826264519</v>
       </c>
     </row>
     <row r="15">
@@ -5830,28 +5830,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>86.67806731545767</v>
+        <v>110.9840171967931</v>
       </c>
       <c r="AB15" t="n">
-        <v>118.5967556674088</v>
+        <v>151.8532285978647</v>
       </c>
       <c r="AC15" t="n">
-        <v>107.2780477581342</v>
+        <v>137.3605695878709</v>
       </c>
       <c r="AD15" t="n">
-        <v>86678.06731545767</v>
+        <v>110984.0171967931</v>
       </c>
       <c r="AE15" t="n">
-        <v>118596.7556674088</v>
+        <v>151853.2285978647</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.475153795245686e-06</v>
+        <v>6.429944366612119e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH15" t="n">
-        <v>107278.0477581342</v>
+        <v>137360.5695878709</v>
       </c>
     </row>
     <row r="16">
@@ -5936,28 +5936,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>86.06521842432252</v>
+        <v>110.371168305658</v>
       </c>
       <c r="AB16" t="n">
-        <v>117.7582287775733</v>
+        <v>151.0147017080292</v>
       </c>
       <c r="AC16" t="n">
-        <v>106.5195486977844</v>
+        <v>136.6020705275211</v>
       </c>
       <c r="AD16" t="n">
-        <v>86065.21842432252</v>
+        <v>110371.168305658</v>
       </c>
       <c r="AE16" t="n">
-        <v>117758.2287775733</v>
+        <v>151014.7017080291</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.470999006750332e-06</v>
+        <v>6.422256920112137e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH16" t="n">
-        <v>106519.5486977844</v>
+        <v>136602.070527521</v>
       </c>
     </row>
     <row r="17">
@@ -6042,28 +6042,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>85.47397045953895</v>
+        <v>109.7799203408744</v>
       </c>
       <c r="AB17" t="n">
-        <v>116.9492572281375</v>
+        <v>150.2057301585934</v>
       </c>
       <c r="AC17" t="n">
-        <v>105.7877842576278</v>
+        <v>135.8703060873645</v>
       </c>
       <c r="AD17" t="n">
-        <v>85473.97045953895</v>
+        <v>109779.9203408744</v>
       </c>
       <c r="AE17" t="n">
-        <v>116949.2572281375</v>
+        <v>150205.7301585934</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.505311024099601e-06</v>
+        <v>6.485743135589524e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.3359375</v>
       </c>
       <c r="AH17" t="n">
-        <v>105787.7842576278</v>
+        <v>135870.3060873645</v>
       </c>
     </row>
   </sheetData>
@@ -6339,28 +6339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.0566074070155</v>
+        <v>144.3477438051667</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.2160614921737</v>
+        <v>197.5029512471548</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.9750900094588</v>
+        <v>178.6535467773154</v>
       </c>
       <c r="AD2" t="n">
-        <v>109056.6074070155</v>
+        <v>144347.7438051667</v>
       </c>
       <c r="AE2" t="n">
-        <v>149216.0614921736</v>
+        <v>197502.9512471549</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.836871454668564e-06</v>
+        <v>5.407514813774476e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.540364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>134975.0900094588</v>
+        <v>178653.5467773154</v>
       </c>
     </row>
     <row r="3">
@@ -6445,28 +6445,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.71223395983127</v>
+        <v>123.9180295034109</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.3799922113382</v>
+        <v>169.5501148441217</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.7956561126088</v>
+        <v>153.3684898485266</v>
       </c>
       <c r="AD3" t="n">
-        <v>88712.23395983127</v>
+        <v>123918.0295034109</v>
       </c>
       <c r="AE3" t="n">
-        <v>121379.9922113382</v>
+        <v>169550.1148441217</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.301328687279682e-06</v>
+        <v>6.292841979930036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.759114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>109795.6561126088</v>
+        <v>153368.4898485266</v>
       </c>
     </row>
     <row r="4">
@@ -6551,28 +6551,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.86863117479218</v>
+        <v>109.481396294798</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.4892494299486</v>
+        <v>149.7972763888004</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.2762403615821</v>
+        <v>135.5008345720919</v>
       </c>
       <c r="AD4" t="n">
-        <v>85868.63117479219</v>
+        <v>109481.396294798</v>
       </c>
       <c r="AE4" t="n">
-        <v>117489.2494299486</v>
+        <v>149797.2763888004</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.486024989449812e-06</v>
+        <v>6.644901636489634e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.51171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>106276.2403615821</v>
+        <v>135500.834572092</v>
       </c>
     </row>
     <row r="5">
@@ -6657,28 +6657,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.73499279536806</v>
+        <v>108.1771657147816</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.9381553866257</v>
+        <v>148.0127705706306</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.8731805567793</v>
+        <v>133.8866394846381</v>
       </c>
       <c r="AD5" t="n">
-        <v>84734.99279536806</v>
+        <v>108177.1657147816</v>
       </c>
       <c r="AE5" t="n">
-        <v>115938.1553866257</v>
+        <v>148012.7705706306</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.560975613313858e-06</v>
+        <v>6.787769092884065e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.4140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>104873.1805567793</v>
+        <v>133886.6394846381</v>
       </c>
     </row>
     <row r="6">
@@ -6763,28 +6763,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>84.29617617509852</v>
+        <v>107.7383490945121</v>
       </c>
       <c r="AB6" t="n">
-        <v>115.3377471275502</v>
+        <v>147.4123623115552</v>
       </c>
       <c r="AC6" t="n">
-        <v>104.3300744192715</v>
+        <v>133.3435333471303</v>
       </c>
       <c r="AD6" t="n">
-        <v>84296.17617509852</v>
+        <v>107738.3490945121</v>
       </c>
       <c r="AE6" t="n">
-        <v>115337.7471275502</v>
+        <v>147412.3623115552</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.588043799316304e-06</v>
+        <v>6.8393652329028e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.381510416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>104330.0744192715</v>
+        <v>133343.5333471303</v>
       </c>
     </row>
     <row r="7">
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>83.50121014440714</v>
+        <v>106.9433830638207</v>
       </c>
       <c r="AB7" t="n">
-        <v>114.2500395329328</v>
+        <v>146.3246547169377</v>
       </c>
       <c r="AC7" t="n">
-        <v>103.3461761108768</v>
+        <v>132.3596350387356</v>
       </c>
       <c r="AD7" t="n">
-        <v>83501.21014440714</v>
+        <v>106943.3830638207</v>
       </c>
       <c r="AE7" t="n">
-        <v>114250.0395329328</v>
+        <v>146324.6547169377</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.621510798245288e-06</v>
+        <v>6.903158497903663e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.342447916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>103346.1761108768</v>
+        <v>132359.6350387356</v>
       </c>
     </row>
     <row r="8">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>82.82611449298824</v>
+        <v>106.2682874124018</v>
       </c>
       <c r="AB8" t="n">
-        <v>113.3263438795438</v>
+        <v>145.4009590635487</v>
       </c>
       <c r="AC8" t="n">
-        <v>102.5106366742319</v>
+        <v>131.5240956020908</v>
       </c>
       <c r="AD8" t="n">
-        <v>82826.11449298824</v>
+        <v>106268.2874124018</v>
       </c>
       <c r="AE8" t="n">
-        <v>113326.3438795438</v>
+        <v>145400.9590635487</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.6530219336005e-06</v>
+        <v>6.963223585079801e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.303385416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>102510.6366742319</v>
+        <v>131524.0956020908</v>
       </c>
     </row>
     <row r="9">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>81.95878794069988</v>
+        <v>105.4009608601135</v>
       </c>
       <c r="AB9" t="n">
-        <v>112.1396294269565</v>
+        <v>144.2142446109614</v>
       </c>
       <c r="AC9" t="n">
-        <v>101.437180583435</v>
+        <v>130.4506395112938</v>
       </c>
       <c r="AD9" t="n">
-        <v>81958.78794069988</v>
+        <v>105400.9608601135</v>
       </c>
       <c r="AE9" t="n">
-        <v>112139.6294269565</v>
+        <v>144214.2446109614</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.693684578763855e-06</v>
+        <v>7.040732862324718e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.2578125</v>
       </c>
       <c r="AH9" t="n">
-        <v>101437.180583435</v>
+        <v>130450.6395112938</v>
       </c>
     </row>
     <row r="10">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>81.74879323892638</v>
+        <v>105.19096615834</v>
       </c>
       <c r="AB10" t="n">
-        <v>111.8523054116777</v>
+        <v>143.9269205956826</v>
       </c>
       <c r="AC10" t="n">
-        <v>101.1772783689126</v>
+        <v>130.1907372967714</v>
       </c>
       <c r="AD10" t="n">
-        <v>81748.79323892639</v>
+        <v>105190.96615834</v>
       </c>
       <c r="AE10" t="n">
-        <v>111852.3054116777</v>
+        <v>143926.9205956826</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.68600600325201e-06</v>
+        <v>7.026096312346164e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.264322916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>101177.2783689125</v>
+        <v>130190.7372967714</v>
       </c>
     </row>
     <row r="11">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>80.92948640339618</v>
+        <v>104.3716593228098</v>
       </c>
       <c r="AB11" t="n">
-        <v>110.7312936540393</v>
+        <v>142.8059088380442</v>
       </c>
       <c r="AC11" t="n">
-        <v>100.1632544000729</v>
+        <v>129.1767133279317</v>
       </c>
       <c r="AD11" t="n">
-        <v>80929.48640339618</v>
+        <v>104371.6593228098</v>
       </c>
       <c r="AE11" t="n">
-        <v>110731.2936540393</v>
+        <v>142805.9088380442</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.714692002333996e-06</v>
+        <v>7.080776253775476e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.231770833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>100163.2544000729</v>
+        <v>129176.7133279317</v>
       </c>
     </row>
     <row r="12">
@@ -7399,28 +7399,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>80.84588342555635</v>
+        <v>104.2880563449699</v>
       </c>
       <c r="AB12" t="n">
-        <v>110.6169043714558</v>
+        <v>142.6915195554607</v>
       </c>
       <c r="AC12" t="n">
-        <v>100.0597822700728</v>
+        <v>129.0732411979316</v>
       </c>
       <c r="AD12" t="n">
-        <v>80845.88342555636</v>
+        <v>104288.0563449699</v>
       </c>
       <c r="AE12" t="n">
-        <v>110616.9043714558</v>
+        <v>142691.5195554607</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.711190765072306e-06</v>
+        <v>7.074102355200349e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.23828125</v>
       </c>
       <c r="AH12" t="n">
-        <v>100059.7822700728</v>
+        <v>129073.2411979316</v>
       </c>
     </row>
   </sheetData>
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.65614827276733</v>
+        <v>92.49778190912825</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.04310331291452</v>
+        <v>126.5595459221525</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.68600713711402</v>
+        <v>114.480880486814</v>
       </c>
       <c r="AD2" t="n">
-        <v>71656.14827276733</v>
+        <v>92497.78190912824</v>
       </c>
       <c r="AE2" t="n">
-        <v>98043.10331291452</v>
+        <v>126559.5459221525</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.963641605342136e-06</v>
+        <v>8.441519322740242e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.427083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>88686.00713711402</v>
+        <v>114480.880486814</v>
       </c>
     </row>
     <row r="3">
@@ -7802,28 +7802,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.71860453189289</v>
+        <v>89.5602381682538</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.02382637136868</v>
+        <v>122.5402689806066</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.05032434577743</v>
+        <v>110.8451976954773</v>
       </c>
       <c r="AD3" t="n">
-        <v>68718.6045318929</v>
+        <v>89560.23816825381</v>
       </c>
       <c r="AE3" t="n">
-        <v>94023.82637136869</v>
+        <v>122540.2689806066</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.268916401161005e-06</v>
+        <v>9.091674746524609e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.108072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>85050.32434577742</v>
+        <v>110845.1976954773</v>
       </c>
     </row>
     <row r="4">
@@ -7908,28 +7908,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.21872428367158</v>
+        <v>88.06035792003247</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.97162404570679</v>
+        <v>120.4880666549447</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.19398132979198</v>
+        <v>108.9888546794919</v>
       </c>
       <c r="AD4" t="n">
-        <v>67218.72428367157</v>
+        <v>88060.35792003247</v>
       </c>
       <c r="AE4" t="n">
-        <v>91971.62404570679</v>
+        <v>120488.0666549447</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.374617462414088e-06</v>
+        <v>9.31679034471579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.010416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>83193.98132979198</v>
+        <v>108988.8546794919</v>
       </c>
     </row>
     <row r="5">
@@ -8014,28 +8014,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.51165178448933</v>
+        <v>87.73129754891831</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.32173508963201</v>
+        <v>120.0378317380675</v>
       </c>
       <c r="AC5" t="n">
-        <v>69.94225721443206</v>
+        <v>108.5815895511727</v>
       </c>
       <c r="AD5" t="n">
-        <v>56511.65178448933</v>
+        <v>87731.2975489183</v>
       </c>
       <c r="AE5" t="n">
-        <v>77321.73508963201</v>
+        <v>120037.8317380675</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.403204978598008e-06</v>
+        <v>9.377674272750671e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>69942.25721443206</v>
+        <v>108581.5895511727</v>
       </c>
     </row>
   </sheetData>
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.46736996182887</v>
+        <v>114.2974172458578</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.4672496684343</v>
+        <v>156.3867687218863</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.8289718053751</v>
+        <v>141.4614350053209</v>
       </c>
       <c r="AD2" t="n">
-        <v>81467.36996182887</v>
+        <v>114297.4172458578</v>
       </c>
       <c r="AE2" t="n">
-        <v>111467.2496684343</v>
+        <v>156386.7687218863</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.435582851207152e-06</v>
+        <v>6.97542097772048e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.8828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>100828.9718053751</v>
+        <v>141461.4350053208</v>
       </c>
     </row>
     <row r="3">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.88825072200127</v>
+        <v>97.7465914683811</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.8336525911364</v>
+        <v>133.7411987222536</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.92391451931124</v>
+        <v>120.9771264231887</v>
       </c>
       <c r="AD3" t="n">
-        <v>75888.25072200128</v>
+        <v>97746.5914683811</v>
       </c>
       <c r="AE3" t="n">
-        <v>103833.6525911364</v>
+        <v>133741.1987222536</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.883602610044158e-06</v>
+        <v>7.885055982775546e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>93923.91451931123</v>
+        <v>120977.1264231887</v>
       </c>
     </row>
     <row r="4">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.26609269132216</v>
+        <v>96.12443343770198</v>
       </c>
       <c r="AB4" t="n">
-        <v>101.6141444090008</v>
+        <v>131.521690540118</v>
       </c>
       <c r="AC4" t="n">
-        <v>91.91623308297866</v>
+        <v>118.9694449868562</v>
       </c>
       <c r="AD4" t="n">
-        <v>74266.09269132216</v>
+        <v>96124.43343770198</v>
       </c>
       <c r="AE4" t="n">
-        <v>101614.1444090008</v>
+        <v>131521.690540118</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.01622223257545e-06</v>
+        <v>8.154319667316616e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.1796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>91916.23308297867</v>
+        <v>118969.4449868562</v>
       </c>
     </row>
     <row r="5">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>72.99567761985809</v>
+        <v>94.85401836623792</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.8759064614672</v>
+        <v>129.7834525925844</v>
       </c>
       <c r="AC5" t="n">
-        <v>90.34389012552481</v>
+        <v>117.3971020294023</v>
       </c>
       <c r="AD5" t="n">
-        <v>72995.67761985809</v>
+        <v>94854.01836623793</v>
       </c>
       <c r="AE5" t="n">
-        <v>99875.9064614672</v>
+        <v>129783.4525925844</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.099273821262686e-06</v>
+        <v>8.322943105915513e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.095052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>90343.89012552481</v>
+        <v>117397.1020294023</v>
       </c>
     </row>
     <row r="6">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>72.27579679419935</v>
+        <v>94.13413754057919</v>
       </c>
       <c r="AB6" t="n">
-        <v>98.89093375690081</v>
+        <v>128.798479888018</v>
       </c>
       <c r="AC6" t="n">
-        <v>89.45292183346405</v>
+        <v>116.5061337373415</v>
       </c>
       <c r="AD6" t="n">
-        <v>72275.79679419936</v>
+        <v>94134.13754057919</v>
       </c>
       <c r="AE6" t="n">
-        <v>98890.93375690081</v>
+        <v>128798.479888018</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.122936564408211e-06</v>
+        <v>8.370986655460451e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.069010416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>89452.92183346405</v>
+        <v>116506.1337373415</v>
       </c>
     </row>
     <row r="7">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>71.80739974341417</v>
+        <v>93.665740489794</v>
       </c>
       <c r="AB7" t="n">
-        <v>98.25005224779737</v>
+        <v>128.1575983789145</v>
       </c>
       <c r="AC7" t="n">
-        <v>88.87320515610638</v>
+        <v>115.9264170599839</v>
       </c>
       <c r="AD7" t="n">
-        <v>71807.39974341416</v>
+        <v>93665.740489794</v>
       </c>
       <c r="AE7" t="n">
-        <v>98250.05224779737</v>
+        <v>128157.5983789146</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.152270117457892e-06</v>
+        <v>8.430543909689358e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.04296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>88873.20515610639</v>
+        <v>115926.4170599839</v>
       </c>
     </row>
   </sheetData>
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.1712114774526</v>
+        <v>85.17893672541874</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.17012669434955</v>
+        <v>116.5455790571447</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.65985495372117</v>
+        <v>105.4226325647086</v>
       </c>
       <c r="AD2" t="n">
-        <v>65171.2114774526</v>
+        <v>85178.93672541874</v>
       </c>
       <c r="AE2" t="n">
-        <v>89170.12669434954</v>
+        <v>116545.5790571447</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.367503763554648e-06</v>
+        <v>9.725577802951575e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.173177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>80659.85495372117</v>
+        <v>105422.6325647086</v>
       </c>
     </row>
     <row r="3">
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>53.08587616002544</v>
+        <v>83.05465934186223</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.63443774568886</v>
+        <v>113.6390490244602</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.70230895033019</v>
+        <v>102.793497679002</v>
       </c>
       <c r="AD3" t="n">
-        <v>53085.87616002544</v>
+        <v>83054.65934186224</v>
       </c>
       <c r="AE3" t="n">
-        <v>72634.43774568886</v>
+        <v>113639.0490244602</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.578303806168134e-06</v>
+        <v>1.019498832353562e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.977864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>65702.30895033019</v>
+        <v>102793.497679002</v>
       </c>
     </row>
     <row r="4">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.01819925539907</v>
+        <v>73.11117584938577</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.54183921908479</v>
+        <v>100.0339362345292</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.61854789714235</v>
+        <v>90.48683775884196</v>
       </c>
       <c r="AD4" t="n">
-        <v>53018.19925539907</v>
+        <v>73111.17584938578</v>
       </c>
       <c r="AE4" t="n">
-        <v>72541.8392190848</v>
+        <v>100033.9362345292</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.610344964908667e-06</v>
+        <v>1.026633772564218e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.951822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>65618.54789714234</v>
+        <v>90486.83775884195</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.4167255311624</v>
+        <v>148.0484165139374</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.8135233475786</v>
+        <v>202.5663749094498</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.1337765579636</v>
+        <v>183.2337243918423</v>
       </c>
       <c r="AD2" t="n">
-        <v>112416.7255311624</v>
+        <v>148048.4165139374</v>
       </c>
       <c r="AE2" t="n">
-        <v>153813.5233475786</v>
+        <v>202566.3749094498</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.735076681724755e-06</v>
+        <v>5.171383620702649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.696614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>139133.7765579636</v>
+        <v>183233.7243918423</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.08040939526549</v>
+        <v>126.6267595234689</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.6202343186243</v>
+        <v>173.2563187582979</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.7266540608849</v>
+        <v>156.7209788628248</v>
       </c>
       <c r="AD3" t="n">
-        <v>91080.40939526549</v>
+        <v>126626.7595234689</v>
       </c>
       <c r="AE3" t="n">
-        <v>124620.2343186243</v>
+        <v>173256.3187582979</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.206871845700059e-06</v>
+        <v>6.063436775779103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.856770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>112726.6540608849</v>
+        <v>156720.9788628248</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.34343926461854</v>
+        <v>112.1832407743735</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.8753910392747</v>
+        <v>153.4940592027198</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.3392133681947</v>
+        <v>138.8448016227193</v>
       </c>
       <c r="AD4" t="n">
-        <v>88343.43926461854</v>
+        <v>112183.2407743735</v>
       </c>
       <c r="AE4" t="n">
-        <v>120875.3910392747</v>
+        <v>153494.0592027198</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.376580270477541e-06</v>
+        <v>6.384315299607577e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.615885416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>109339.2133681947</v>
+        <v>138844.8016227193</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.6830249591811</v>
+        <v>110.3522342683439</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.603538934267</v>
+        <v>150.9887953228653</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.2841836395238</v>
+        <v>136.5786366113974</v>
       </c>
       <c r="AD5" t="n">
-        <v>86683.0249591811</v>
+        <v>110352.2342683439</v>
       </c>
       <c r="AE5" t="n">
-        <v>118603.538934267</v>
+        <v>150988.7953228653</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.484191492449388e-06</v>
+        <v>6.587782688448053e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.47265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>107284.1836395238</v>
+        <v>136578.6366113974</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.46195884989804</v>
+        <v>109.1311681590608</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.932822413912</v>
+        <v>149.3180788025103</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.7729179590056</v>
+        <v>135.0673709308792</v>
       </c>
       <c r="AD6" t="n">
-        <v>85461.95884989804</v>
+        <v>109131.1681590608</v>
       </c>
       <c r="AE6" t="n">
-        <v>116932.822413912</v>
+        <v>149318.0788025103</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.551266043302644e-06</v>
+        <v>6.714604812290582e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.388020833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>105772.9179590056</v>
+        <v>135067.3709308791</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>85.08446625067614</v>
+        <v>108.7536755598389</v>
       </c>
       <c r="AB7" t="n">
-        <v>116.4163203858587</v>
+        <v>148.801576774457</v>
       </c>
       <c r="AC7" t="n">
-        <v>105.3057101595944</v>
+        <v>134.600163131468</v>
       </c>
       <c r="AD7" t="n">
-        <v>85084.46625067614</v>
+        <v>108753.6755598389</v>
       </c>
       <c r="AE7" t="n">
-        <v>116416.3203858587</v>
+        <v>148801.576774457</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.566245946561344e-06</v>
+        <v>6.742928269131616e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.368489583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>105305.7101595944</v>
+        <v>134600.163131468</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>84.43871629583649</v>
+        <v>108.1079256049993</v>
       </c>
       <c r="AB8" t="n">
-        <v>115.5327768091701</v>
+        <v>147.9180331977684</v>
       </c>
       <c r="AC8" t="n">
-        <v>104.5064907418035</v>
+        <v>133.8009437136771</v>
       </c>
       <c r="AD8" t="n">
-        <v>84438.71629583648</v>
+        <v>108107.9256049993</v>
       </c>
       <c r="AE8" t="n">
-        <v>115532.7768091701</v>
+        <v>147918.0331977684</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.593764938170778e-06</v>
+        <v>6.794960178663872e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.3359375</v>
       </c>
       <c r="AH8" t="n">
-        <v>104506.4907418035</v>
+        <v>133800.9437136771</v>
       </c>
     </row>
     <row r="9">
@@ -10389,28 +10389,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>83.6301776408212</v>
+        <v>107.299386949984</v>
       </c>
       <c r="AB9" t="n">
-        <v>114.4264985511708</v>
+        <v>146.8117549397691</v>
       </c>
       <c r="AC9" t="n">
-        <v>103.505794128076</v>
+        <v>132.8002470999495</v>
       </c>
       <c r="AD9" t="n">
-        <v>83630.1776408212</v>
+        <v>107299.386949984</v>
       </c>
       <c r="AE9" t="n">
-        <v>114426.4985511708</v>
+        <v>146811.7549397691</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.624777645236714e-06</v>
+        <v>6.853597878449786e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>103505.794128076</v>
+        <v>132800.2470999495</v>
       </c>
     </row>
     <row r="10">
@@ -10495,28 +10495,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>83.51403098340958</v>
+        <v>107.1832402925724</v>
       </c>
       <c r="AB10" t="n">
-        <v>114.2675815704714</v>
+        <v>146.6528379590697</v>
       </c>
       <c r="AC10" t="n">
-        <v>103.3620439609731</v>
+        <v>132.6564969328467</v>
       </c>
       <c r="AD10" t="n">
-        <v>83514.03098340958</v>
+        <v>107183.2402925724</v>
       </c>
       <c r="AE10" t="n">
-        <v>114267.5815704714</v>
+        <v>146652.8379590697</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.626141630038225e-06</v>
+        <v>6.856176851357036e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH10" t="n">
-        <v>103362.0439609731</v>
+        <v>132656.4969328467</v>
       </c>
     </row>
     <row r="11">
@@ -10601,28 +10601,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>82.62247542073524</v>
+        <v>106.291684729898</v>
       </c>
       <c r="AB11" t="n">
-        <v>113.0477159169655</v>
+        <v>145.4329723055638</v>
       </c>
       <c r="AC11" t="n">
-        <v>102.2586005733452</v>
+        <v>131.5530535452188</v>
       </c>
       <c r="AD11" t="n">
-        <v>82622.47542073524</v>
+        <v>106291.684729898</v>
       </c>
       <c r="AE11" t="n">
-        <v>113047.7159169655</v>
+        <v>145432.9723055638</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.651985552593171e-06</v>
+        <v>6.905041601178631e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.264322916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>102258.6005733452</v>
+        <v>131553.0535452188</v>
       </c>
     </row>
     <row r="12">
@@ -10707,28 +10707,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>82.25462174164785</v>
+        <v>105.9238310508106</v>
       </c>
       <c r="AB12" t="n">
-        <v>112.5444022846795</v>
+        <v>144.9296586732777</v>
       </c>
       <c r="AC12" t="n">
-        <v>101.8033224877193</v>
+        <v>131.0977754595928</v>
       </c>
       <c r="AD12" t="n">
-        <v>82254.62174164785</v>
+        <v>105923.8310508106</v>
       </c>
       <c r="AE12" t="n">
-        <v>112544.4022846795</v>
+        <v>144929.6586732777</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.658015801189326e-06</v>
+        <v>6.916443376137004e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.2578125</v>
       </c>
       <c r="AH12" t="n">
-        <v>101803.3224877193</v>
+        <v>131097.7754595928</v>
       </c>
     </row>
     <row r="13">
@@ -10813,28 +10813,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>82.11946177376504</v>
+        <v>105.7886710829278</v>
       </c>
       <c r="AB13" t="n">
-        <v>112.3594704537853</v>
+        <v>144.7447268423836</v>
       </c>
       <c r="AC13" t="n">
-        <v>101.6360402912122</v>
+        <v>130.9304932630858</v>
       </c>
       <c r="AD13" t="n">
-        <v>82119.46177376504</v>
+        <v>105788.6710829278</v>
       </c>
       <c r="AE13" t="n">
-        <v>112359.4704537854</v>
+        <v>144744.7268423836</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.65043013132829e-06</v>
+        <v>6.902100667161591e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.270833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>101636.0402912122</v>
+        <v>130930.4932630858</v>
       </c>
     </row>
   </sheetData>
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.02097680756923</v>
+        <v>81.53490343114592</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.85983664047228</v>
+        <v>111.5596519405203</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.76093293305449</v>
+        <v>100.9125553343006</v>
       </c>
       <c r="AD2" t="n">
-        <v>62020.97680756923</v>
+        <v>81534.90343114593</v>
       </c>
       <c r="AE2" t="n">
-        <v>84859.83664047228</v>
+        <v>111559.6519405203</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.546287421274285e-06</v>
+        <v>1.042266736970209e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.1015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>76760.93293305449</v>
+        <v>100912.5553343006</v>
       </c>
     </row>
     <row r="3">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.94115931411216</v>
+        <v>70.54033728370943</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.69994153888236</v>
+        <v>96.51640149157963</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.04787694290908</v>
+        <v>87.30501159486739</v>
       </c>
       <c r="AD3" t="n">
-        <v>50941.15931411216</v>
+        <v>70540.33728370944</v>
       </c>
       <c r="AE3" t="n">
-        <v>69699.94153888235</v>
+        <v>96516.40149157963</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.712329679077689e-06</v>
+        <v>1.080333032873563e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>63047.87694290908</v>
+        <v>87305.01159486739</v>
       </c>
     </row>
   </sheetData>
@@ -11513,28 +11513,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.17465551345967</v>
+        <v>121.9653263553244</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.6951389504684</v>
+        <v>166.8783402497283</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.7445853383956</v>
+        <v>150.951705671562</v>
       </c>
       <c r="AD2" t="n">
-        <v>99174.65551345967</v>
+        <v>121965.3263553244</v>
       </c>
       <c r="AE2" t="n">
-        <v>135695.1389504684</v>
+        <v>166878.3402497283</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.186343166165016e-06</v>
+        <v>6.245188570630595e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.084635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>122744.5853383956</v>
+        <v>150951.705671562</v>
       </c>
     </row>
     <row r="3">
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.88766544173555</v>
+        <v>105.7635876296209</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.410560603056</v>
+        <v>144.7104065549651</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.5868158718511</v>
+        <v>130.8994484557297</v>
       </c>
       <c r="AD3" t="n">
-        <v>82887.66544173555</v>
+        <v>105763.5876296209</v>
       </c>
       <c r="AE3" t="n">
-        <v>113410.560603056</v>
+        <v>144710.4065549651</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.541108296122098e-06</v>
+        <v>6.940523322515731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.576822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>102586.8158718511</v>
+        <v>130899.4484557297</v>
       </c>
     </row>
     <row r="4">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.6566602691816</v>
+        <v>103.3619902564747</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.3580009009675</v>
+        <v>141.4244350780298</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.82558818343448</v>
+        <v>127.927085484662</v>
       </c>
       <c r="AD4" t="n">
-        <v>80656.66026918159</v>
+        <v>103361.9902564747</v>
       </c>
       <c r="AE4" t="n">
-        <v>110358.0009009675</v>
+        <v>141424.4350780298</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.70182237322748e-06</v>
+        <v>7.255520692584311e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>99825.58818343448</v>
+        <v>127927.085484662</v>
       </c>
     </row>
     <row r="5">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.40495325095745</v>
+        <v>102.1102832382506</v>
       </c>
       <c r="AB5" t="n">
-        <v>108.6453601372178</v>
+        <v>139.71179431428</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.27639945047005</v>
+        <v>126.3778967516976</v>
       </c>
       <c r="AD5" t="n">
-        <v>79404.95325095745</v>
+        <v>102110.2832382506</v>
       </c>
       <c r="AE5" t="n">
-        <v>108645.3601372178</v>
+        <v>139711.79431428</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.784418462389997e-06</v>
+        <v>7.417407885870331e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.27734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>98276.39945047005</v>
+        <v>126377.8967516976</v>
       </c>
     </row>
     <row r="6">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>78.46575114015161</v>
+        <v>101.1710811274447</v>
       </c>
       <c r="AB6" t="n">
-        <v>107.3603023745411</v>
+        <v>138.4267365516033</v>
       </c>
       <c r="AC6" t="n">
-        <v>97.1139857970729</v>
+        <v>125.2154830983005</v>
       </c>
       <c r="AD6" t="n">
-        <v>78465.75114015161</v>
+        <v>101171.0811274447</v>
       </c>
       <c r="AE6" t="n">
-        <v>107360.3023745411</v>
+        <v>138426.7365516033</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.84007130921426e-06</v>
+        <v>7.526486696527206e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH6" t="n">
-        <v>97113.98579707291</v>
+        <v>125215.4830983005</v>
       </c>
     </row>
     <row r="7">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>77.76193485290243</v>
+        <v>100.4672648401955</v>
       </c>
       <c r="AB7" t="n">
-        <v>106.397309880144</v>
+        <v>137.4637440572063</v>
       </c>
       <c r="AC7" t="n">
-        <v>96.24289995477237</v>
+        <v>124.3443972559999</v>
       </c>
       <c r="AD7" t="n">
-        <v>77761.93485290243</v>
+        <v>100467.2648401955</v>
       </c>
       <c r="AE7" t="n">
-        <v>106397.309880144</v>
+        <v>137463.7440572063</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.867760901755791e-06</v>
+        <v>7.58075791524026e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.186197916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>96242.89995477237</v>
+        <v>124344.3972559999</v>
       </c>
     </row>
     <row r="8">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>77.00259141477882</v>
+        <v>99.70792140207192</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.3583426882356</v>
+        <v>136.4247768652979</v>
       </c>
       <c r="AC8" t="n">
-        <v>95.30309033345975</v>
+        <v>123.4045876346873</v>
       </c>
       <c r="AD8" t="n">
-        <v>77002.59141477881</v>
+        <v>99707.92140207192</v>
       </c>
       <c r="AE8" t="n">
-        <v>105358.3426882356</v>
+        <v>136424.7768652979</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.899082731953264e-06</v>
+        <v>7.642148269561677e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.153645833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>95303.09033345975</v>
+        <v>123404.5876346873</v>
       </c>
     </row>
     <row r="9">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>76.60437500250937</v>
+        <v>99.30970498980248</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.8134854249006</v>
+        <v>135.8799196019629</v>
       </c>
       <c r="AC9" t="n">
-        <v>94.81023348262531</v>
+        <v>122.9117307838529</v>
       </c>
       <c r="AD9" t="n">
-        <v>76604.37500250938</v>
+        <v>99309.70498980249</v>
       </c>
       <c r="AE9" t="n">
-        <v>104813.4854249006</v>
+        <v>135879.9196019629</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.899605177095558e-06</v>
+        <v>7.643172254820413e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.153645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>94810.23348262531</v>
+        <v>122911.7307838529</v>
       </c>
     </row>
     <row r="10">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>76.50795053474627</v>
+        <v>99.21328052203938</v>
       </c>
       <c r="AB10" t="n">
-        <v>104.6815532141599</v>
+        <v>135.7479873912222</v>
       </c>
       <c r="AC10" t="n">
-        <v>94.69089269690963</v>
+        <v>122.7923899981372</v>
       </c>
       <c r="AD10" t="n">
-        <v>76507.95053474627</v>
+        <v>99213.28052203938</v>
       </c>
       <c r="AE10" t="n">
-        <v>104681.5532141599</v>
+        <v>135747.9873912222</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.897888571628024e-06</v>
+        <v>7.63980773182742e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.153645833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>94690.89269690964</v>
+        <v>122792.3899981372</v>
       </c>
     </row>
   </sheetData>
@@ -12658,28 +12658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.5393224800423</v>
+        <v>140.3063620774633</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.4035570834318</v>
+        <v>191.9733544741354</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.6218842670934</v>
+        <v>173.6516869594733</v>
       </c>
       <c r="AD2" t="n">
-        <v>105539.3224800423</v>
+        <v>140306.3620774634</v>
       </c>
       <c r="AE2" t="n">
-        <v>144403.5570834318</v>
+        <v>191973.3544741354</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.951862664456988e-06</v>
+        <v>5.675555440342432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>130621.8842670934</v>
+        <v>173651.6869594733</v>
       </c>
     </row>
     <row r="3">
@@ -12764,28 +12764,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.11262287250364</v>
+        <v>120.9649138159453</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.8230896349112</v>
+        <v>165.5095316782641</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.5782193259309</v>
+        <v>149.713534269023</v>
       </c>
       <c r="AD3" t="n">
-        <v>86112.62287250363</v>
+        <v>120964.9138159453</v>
       </c>
       <c r="AE3" t="n">
-        <v>117823.0896349112</v>
+        <v>165509.5316782641</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.413321252549569e-06</v>
+        <v>6.562803289531707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.6484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>106578.2193259309</v>
+        <v>149713.534269023</v>
       </c>
     </row>
     <row r="4">
@@ -12870,28 +12870,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.42704330256504</v>
+        <v>107.6335464885533</v>
       </c>
       <c r="AB4" t="n">
-        <v>115.5168053048</v>
+        <v>147.2689667625177</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.4920435353943</v>
+        <v>133.2138232680361</v>
       </c>
       <c r="AD4" t="n">
-        <v>84427.04330256504</v>
+        <v>107633.5464885533</v>
       </c>
       <c r="AE4" t="n">
-        <v>115516.8053048</v>
+        <v>147268.9667625178</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.536297248372666e-06</v>
+        <v>6.79924961561907e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.485677083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>104492.0435353943</v>
+        <v>133213.8232680361</v>
       </c>
     </row>
     <row r="5">
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.35361991000316</v>
+        <v>106.5601230959914</v>
       </c>
       <c r="AB5" t="n">
-        <v>114.0481000629998</v>
+        <v>145.8002615207175</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.1635094605303</v>
+        <v>131.885289193172</v>
       </c>
       <c r="AD5" t="n">
-        <v>83353.61991000317</v>
+        <v>106560.1230959914</v>
       </c>
       <c r="AE5" t="n">
-        <v>114048.1000629998</v>
+        <v>145800.2615207175</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.607230875299369e-06</v>
+        <v>6.935633918674418e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.401041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>103163.5094605303</v>
+        <v>131885.289193172</v>
       </c>
     </row>
     <row r="6">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>82.31676423295403</v>
+        <v>105.5232674189423</v>
       </c>
       <c r="AB6" t="n">
-        <v>112.6294283828177</v>
+        <v>144.3815898405354</v>
       </c>
       <c r="AC6" t="n">
-        <v>101.8802338143862</v>
+        <v>130.6020135470279</v>
       </c>
       <c r="AD6" t="n">
-        <v>82316.76423295402</v>
+        <v>105523.2674189423</v>
       </c>
       <c r="AE6" t="n">
-        <v>112629.4283828177</v>
+        <v>144381.5898405355</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.665684084017661e-06</v>
+        <v>7.048022083185318e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.329427083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>101880.2338143862</v>
+        <v>130602.0135470279</v>
       </c>
     </row>
     <row r="7">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>81.59606018907965</v>
+        <v>104.8025633750679</v>
       </c>
       <c r="AB7" t="n">
-        <v>111.6433293147709</v>
+        <v>143.3954907724886</v>
       </c>
       <c r="AC7" t="n">
-        <v>100.9882466573947</v>
+        <v>129.7100263900364</v>
       </c>
       <c r="AD7" t="n">
-        <v>81596.06018907965</v>
+        <v>104802.5633750679</v>
       </c>
       <c r="AE7" t="n">
-        <v>111643.3293147709</v>
+        <v>143395.4907724886</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.692058717809652e-06</v>
+        <v>7.098732672843699e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>100988.2466573947</v>
+        <v>129710.0263900364</v>
       </c>
     </row>
     <row r="8">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>80.95677959022645</v>
+        <v>104.1632827762147</v>
       </c>
       <c r="AB8" t="n">
-        <v>110.7686373963508</v>
+        <v>142.5207988540686</v>
       </c>
       <c r="AC8" t="n">
-        <v>100.1970341080305</v>
+        <v>128.9188138406722</v>
       </c>
       <c r="AD8" t="n">
-        <v>80956.77959022645</v>
+        <v>104163.2827762147</v>
       </c>
       <c r="AE8" t="n">
-        <v>110768.6373963508</v>
+        <v>142520.7988540686</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.723552273132436e-06</v>
+        <v>7.159285428701949e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.264322916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>100197.0341080305</v>
+        <v>128918.8138406722</v>
       </c>
     </row>
     <row r="9">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>80.39569182371591</v>
+        <v>103.6021950097042</v>
       </c>
       <c r="AB9" t="n">
-        <v>110.0009323607663</v>
+        <v>141.753093818484</v>
       </c>
       <c r="AC9" t="n">
-        <v>99.50259776356108</v>
+        <v>128.2243774962028</v>
       </c>
       <c r="AD9" t="n">
-        <v>80395.69182371591</v>
+        <v>103602.1950097042</v>
       </c>
       <c r="AE9" t="n">
-        <v>110000.9323607663</v>
+        <v>141753.093818484</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.752364488605757e-06</v>
+        <v>7.214682764169792e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.231770833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>99502.59776356109</v>
+        <v>128224.3774962028</v>
       </c>
     </row>
     <row r="10">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>79.7808114485198</v>
+        <v>102.9873146345081</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.1596259048157</v>
+        <v>140.9117873625334</v>
       </c>
       <c r="AC10" t="n">
-        <v>98.74158441498516</v>
+        <v>127.4633641476269</v>
       </c>
       <c r="AD10" t="n">
-        <v>79780.8114485198</v>
+        <v>102987.3146345081</v>
       </c>
       <c r="AE10" t="n">
-        <v>109159.6259048157</v>
+        <v>140911.7873625334</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.74707493635727e-06</v>
+        <v>7.204512525763259e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.23828125</v>
       </c>
       <c r="AH10" t="n">
-        <v>98741.58441498516</v>
+        <v>127463.3641476269</v>
       </c>
     </row>
     <row r="11">
@@ -13612,28 +13612,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>79.32422656512777</v>
+        <v>102.530729751116</v>
       </c>
       <c r="AB11" t="n">
-        <v>108.5349063242556</v>
+        <v>140.2870677819733</v>
       </c>
       <c r="AC11" t="n">
-        <v>98.17648719439408</v>
+        <v>126.8982669270358</v>
       </c>
       <c r="AD11" t="n">
-        <v>79324.22656512777</v>
+        <v>102530.729751116</v>
       </c>
       <c r="AE11" t="n">
-        <v>108534.9063242556</v>
+        <v>140287.0677819733</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.781810475316222e-06</v>
+        <v>7.271298653548094e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.19921875</v>
       </c>
       <c r="AH11" t="n">
-        <v>98176.48719439408</v>
+        <v>126898.2669270358</v>
       </c>
     </row>
   </sheetData>
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.5756265010437</v>
+        <v>167.7689414731313</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.0275768856145</v>
+        <v>229.5488671667644</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.8459976179929</v>
+        <v>207.6410454582931</v>
       </c>
       <c r="AD2" t="n">
-        <v>131575.6265010437</v>
+        <v>167768.9414731313</v>
       </c>
       <c r="AE2" t="n">
-        <v>180027.5768856145</v>
+        <v>229548.8671667644</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.546493455171658e-06</v>
+        <v>4.743924164561884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>162845.9976179929</v>
+        <v>207641.0454582931</v>
       </c>
     </row>
     <row r="3">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.20482228608601</v>
+        <v>131.3980477496225</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.263437992097</v>
+        <v>179.7846058036985</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.8312782960493</v>
+        <v>162.6262153551229</v>
       </c>
       <c r="AD3" t="n">
-        <v>95204.82228608601</v>
+        <v>131398.0477496226</v>
       </c>
       <c r="AE3" t="n">
-        <v>130263.437992097</v>
+        <v>179784.6058036985</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.061664760279562e-06</v>
+        <v>5.703649232076547e-06</v>
       </c>
       <c r="AG3" t="n">
         <v>5</v>
       </c>
       <c r="AH3" t="n">
-        <v>117831.2782960493</v>
+        <v>162626.2153551229</v>
       </c>
     </row>
     <row r="4">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.3035536448736</v>
+        <v>128.4967791084102</v>
       </c>
       <c r="AB4" t="n">
-        <v>126.2937942422531</v>
+        <v>175.8149620538547</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.2404917742593</v>
+        <v>159.0354288333329</v>
       </c>
       <c r="AD4" t="n">
-        <v>92303.55364487361</v>
+        <v>128496.7791084101</v>
       </c>
       <c r="AE4" t="n">
-        <v>126293.7942422531</v>
+        <v>175814.9620538547</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.224243939960582e-06</v>
+        <v>6.006521912772853e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.752604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>114240.4917742593</v>
+        <v>159035.4288333329</v>
       </c>
     </row>
     <row r="5">
@@ -14227,28 +14227,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.47202887304505</v>
+        <v>114.7430806063554</v>
       </c>
       <c r="AB5" t="n">
-        <v>123.7878212482683</v>
+        <v>156.9965449929987</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.9736853256644</v>
+        <v>142.0130150849448</v>
       </c>
       <c r="AD5" t="n">
-        <v>90472.02887304504</v>
+        <v>114743.0806063554</v>
       </c>
       <c r="AE5" t="n">
-        <v>123787.8212482683</v>
+        <v>156996.5449929987</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.33141444118302e-06</v>
+        <v>6.206172428050954e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.596354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>111973.6853256644</v>
+        <v>142013.0150849448</v>
       </c>
     </row>
     <row r="6">
@@ -14333,28 +14333,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.53487493069107</v>
+        <v>113.8059266640014</v>
       </c>
       <c r="AB6" t="n">
-        <v>122.5055658800262</v>
+        <v>155.7142896247566</v>
       </c>
       <c r="AC6" t="n">
-        <v>110.8138066101102</v>
+        <v>140.8531363693907</v>
       </c>
       <c r="AD6" t="n">
-        <v>89534.87493069108</v>
+        <v>113805.9266640015</v>
       </c>
       <c r="AE6" t="n">
-        <v>122505.5658800262</v>
+        <v>155714.2896247566</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.384117387997128e-06</v>
+        <v>6.304354020635575e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.524739583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>110813.8066101102</v>
+        <v>140853.1363693906</v>
       </c>
     </row>
     <row r="7">
@@ -14439,28 +14439,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>88.81795570777587</v>
+        <v>112.9184152404941</v>
       </c>
       <c r="AB7" t="n">
-        <v>121.5246453709902</v>
+        <v>154.4999573408738</v>
       </c>
       <c r="AC7" t="n">
-        <v>109.9265037777257</v>
+        <v>139.7546982543551</v>
       </c>
       <c r="AD7" t="n">
-        <v>88817.95570777587</v>
+        <v>112918.4152404941</v>
       </c>
       <c r="AE7" t="n">
-        <v>121524.6453709902</v>
+        <v>154499.9573408738</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.412751087226043e-06</v>
+        <v>6.357696430535344e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.485677083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>109926.5037777257</v>
+        <v>139754.6982543551</v>
       </c>
     </row>
     <row r="8">
@@ -14545,28 +14545,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>88.17620324806592</v>
+        <v>112.2766627807841</v>
       </c>
       <c r="AB8" t="n">
-        <v>120.6465713434952</v>
+        <v>153.6218833133787</v>
       </c>
       <c r="AC8" t="n">
-        <v>109.1322319030299</v>
+        <v>138.9604263796593</v>
       </c>
       <c r="AD8" t="n">
-        <v>88176.20324806591</v>
+        <v>112276.6627807841</v>
       </c>
       <c r="AE8" t="n">
-        <v>120646.5713434952</v>
+        <v>153621.8833133787</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.440890696328575e-06</v>
+        <v>6.410118388004632e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>109132.2319030299</v>
+        <v>138960.4263796592</v>
       </c>
     </row>
     <row r="9">
@@ -14651,28 +14651,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>87.57221920361222</v>
+        <v>111.6726787363304</v>
       </c>
       <c r="AB9" t="n">
-        <v>119.8201737279785</v>
+        <v>152.7954856978621</v>
       </c>
       <c r="AC9" t="n">
-        <v>108.3847045160816</v>
+        <v>138.212898992711</v>
       </c>
       <c r="AD9" t="n">
-        <v>87572.21920361221</v>
+        <v>111672.6787363304</v>
       </c>
       <c r="AE9" t="n">
-        <v>119820.1737279785</v>
+        <v>152795.4856978621</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.471359587455481e-06</v>
+        <v>6.466879621217616e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.4140625</v>
       </c>
       <c r="AH9" t="n">
-        <v>108384.7045160816</v>
+        <v>138212.898992711</v>
       </c>
     </row>
     <row r="10">
@@ -14757,28 +14757,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>86.68839540462993</v>
+        <v>110.7888549373481</v>
       </c>
       <c r="AB10" t="n">
-        <v>118.6108870146575</v>
+        <v>151.586198984541</v>
       </c>
       <c r="AC10" t="n">
-        <v>107.2908304294349</v>
+        <v>137.1190249060643</v>
       </c>
       <c r="AD10" t="n">
-        <v>86688.39540462993</v>
+        <v>110788.8549373481</v>
       </c>
       <c r="AE10" t="n">
-        <v>118610.8870146575</v>
+        <v>151586.198984541</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.511357359591187e-06</v>
+        <v>6.541392437018443e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.361979166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>107290.8304294349</v>
+        <v>137119.0249060643</v>
       </c>
     </row>
     <row r="11">
@@ -14863,28 +14863,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>86.63627239580555</v>
+        <v>110.7367319285238</v>
       </c>
       <c r="AB11" t="n">
-        <v>118.5395700144791</v>
+        <v>151.5148819843627</v>
       </c>
       <c r="AC11" t="n">
-        <v>107.2263198236595</v>
+        <v>137.0545143002889</v>
       </c>
       <c r="AD11" t="n">
-        <v>86636.27239580554</v>
+        <v>110736.7319285237</v>
       </c>
       <c r="AE11" t="n">
-        <v>118539.5700144791</v>
+        <v>151514.8819843627</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.503946007695454e-06</v>
+        <v>6.527585650561232e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.368489583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>107226.3198236595</v>
+        <v>137054.5143002889</v>
       </c>
     </row>
     <row r="12">
@@ -14969,28 +14969,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>85.79787454814536</v>
+        <v>109.8983340808635</v>
       </c>
       <c r="AB12" t="n">
-        <v>117.3924370918084</v>
+        <v>150.367749061692</v>
       </c>
       <c r="AC12" t="n">
-        <v>106.188667657117</v>
+        <v>136.0168621337464</v>
       </c>
       <c r="AD12" t="n">
-        <v>85797.87454814535</v>
+        <v>109898.3340808635</v>
       </c>
       <c r="AE12" t="n">
-        <v>117392.4370918084</v>
+        <v>150367.749061692</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.53187386388668e-06</v>
+        <v>6.579613128417456e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.3359375</v>
       </c>
       <c r="AH12" t="n">
-        <v>106188.667657117</v>
+        <v>136016.8621337464</v>
       </c>
     </row>
     <row r="13">
@@ -15075,28 +15075,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>85.50600880438103</v>
+        <v>109.6064683370992</v>
       </c>
       <c r="AB13" t="n">
-        <v>116.9930935049824</v>
+        <v>149.968405474866</v>
       </c>
       <c r="AC13" t="n">
-        <v>105.8274368617353</v>
+        <v>135.6556313383647</v>
       </c>
       <c r="AD13" t="n">
-        <v>85506.00880438102</v>
+        <v>109606.4683370992</v>
       </c>
       <c r="AE13" t="n">
-        <v>116993.0935049824</v>
+        <v>149968.405474866</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.53657948413794e-06</v>
+        <v>6.588379342041083e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.329427083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>105827.4368617353</v>
+        <v>135655.6313383647</v>
       </c>
     </row>
     <row r="14">
@@ -15181,28 +15181,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>85.31723229040689</v>
+        <v>109.4176918231251</v>
       </c>
       <c r="AB14" t="n">
-        <v>116.7348011503311</v>
+        <v>149.7101131202147</v>
       </c>
       <c r="AC14" t="n">
-        <v>105.5937955668962</v>
+        <v>135.4219900435256</v>
       </c>
       <c r="AD14" t="n">
-        <v>85317.23229040689</v>
+        <v>109417.6918231251</v>
       </c>
       <c r="AE14" t="n">
-        <v>116734.8011503311</v>
+        <v>149710.1131202147</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.529215188444718e-06</v>
+        <v>6.574660217720107e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.342447916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>105593.7955668962</v>
+        <v>135421.9900435256</v>
       </c>
     </row>
     <row r="15">
@@ -15287,28 +15287,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>84.71772223136205</v>
+        <v>108.8181817640803</v>
       </c>
       <c r="AB15" t="n">
-        <v>115.9145250390292</v>
+        <v>148.8898370089128</v>
       </c>
       <c r="AC15" t="n">
-        <v>104.851805456392</v>
+        <v>134.6799999330213</v>
       </c>
       <c r="AD15" t="n">
-        <v>84717.72223136204</v>
+        <v>108818.1817640802</v>
       </c>
       <c r="AE15" t="n">
-        <v>115914.5250390292</v>
+        <v>148889.8370089128</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.529356357052256e-06</v>
+        <v>6.574923204128816e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.342447916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>104851.805456392</v>
+        <v>134679.9999330213</v>
       </c>
     </row>
     <row r="16">
@@ -15393,28 +15393,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>84.57882866791394</v>
+        <v>108.6792882006321</v>
       </c>
       <c r="AB16" t="n">
-        <v>115.7244847379681</v>
+        <v>148.6997967078516</v>
       </c>
       <c r="AC16" t="n">
-        <v>104.6799023349408</v>
+        <v>134.5080968115702</v>
       </c>
       <c r="AD16" t="n">
-        <v>84578.82866791394</v>
+        <v>108679.2882006321</v>
       </c>
       <c r="AE16" t="n">
-        <v>115724.4847379681</v>
+        <v>148699.7967078516</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.532603235025625e-06</v>
+        <v>6.580971891529119e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.3359375</v>
       </c>
       <c r="AH16" t="n">
-        <v>104679.9023349408</v>
+        <v>134508.0968115702</v>
       </c>
     </row>
   </sheetData>
@@ -15690,28 +15690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.67622458032704</v>
+        <v>117.9172810670959</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.9084314078787</v>
+        <v>161.3396260992227</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.414714445483</v>
+        <v>145.9415986259448</v>
       </c>
       <c r="AD2" t="n">
-        <v>95676.22458032705</v>
+        <v>117917.2810670959</v>
       </c>
       <c r="AE2" t="n">
-        <v>130908.4314078787</v>
+        <v>161339.6260992227</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.304133172373822e-06</v>
+        <v>6.623126204473324e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.013020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>118414.714445483</v>
+        <v>145941.5986259448</v>
       </c>
     </row>
     <row r="3">
@@ -15796,28 +15796,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.25784978131315</v>
+        <v>100.4135654135104</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.0758425634178</v>
+        <v>137.3902701325642</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.85667443108129</v>
+        <v>124.2779355796043</v>
       </c>
       <c r="AD3" t="n">
-        <v>78257.84978131315</v>
+        <v>100413.5654135104</v>
       </c>
       <c r="AE3" t="n">
-        <v>107075.8425634178</v>
+        <v>137390.2701325642</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.763650741732376e-06</v>
+        <v>7.544227956812198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.401041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>96856.67443108129</v>
+        <v>124277.9355796043</v>
       </c>
     </row>
     <row r="4">
@@ -15902,28 +15902,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.1955106762266</v>
+        <v>98.3512263084238</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.2540592158598</v>
+        <v>134.5684867850062</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.30419812581553</v>
+        <v>121.7254592743386</v>
       </c>
       <c r="AD4" t="n">
-        <v>76195.51067622661</v>
+        <v>98351.22630842381</v>
       </c>
       <c r="AE4" t="n">
-        <v>104254.0592158598</v>
+        <v>134568.4867850062</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.93057680498244e-06</v>
+        <v>7.878830809071563e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>94304.19812581553</v>
+        <v>121725.4592743386</v>
       </c>
     </row>
     <row r="5">
@@ -16008,28 +16008,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.50605298559749</v>
+        <v>97.66176861779472</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.3107127868149</v>
+        <v>133.6251403559613</v>
       </c>
       <c r="AC5" t="n">
-        <v>93.45088335596338</v>
+        <v>120.8721445044864</v>
       </c>
       <c r="AD5" t="n">
-        <v>75506.05298559749</v>
+        <v>97661.76861779472</v>
       </c>
       <c r="AE5" t="n">
-        <v>103310.7127868149</v>
+        <v>133625.1403559613</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.966644848841138e-06</v>
+        <v>7.951129107585063e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.1796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>93450.88335596338</v>
+        <v>120872.1445044864</v>
       </c>
     </row>
     <row r="6">
@@ -16114,28 +16114,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>74.28192053886875</v>
+        <v>96.43763617106596</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.6358007682894</v>
+        <v>131.9502283374358</v>
       </c>
       <c r="AC6" t="n">
-        <v>91.93582258973161</v>
+        <v>119.3570837382546</v>
       </c>
       <c r="AD6" t="n">
-        <v>74281.92053886874</v>
+        <v>96437.63617106595</v>
       </c>
       <c r="AE6" t="n">
-        <v>101635.8007682894</v>
+        <v>131950.2283374358</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.034428335641216e-06</v>
+        <v>8.087000927586083e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.108072916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>91935.82258973162</v>
+        <v>119357.0837382546</v>
       </c>
     </row>
     <row r="7">
@@ -16220,28 +16220,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>73.4187617413091</v>
+        <v>95.57447737350633</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.4547888215903</v>
+        <v>130.7692163907367</v>
       </c>
       <c r="AC7" t="n">
-        <v>90.86752476566443</v>
+        <v>118.2887859141874</v>
       </c>
       <c r="AD7" t="n">
-        <v>73418.76174130909</v>
+        <v>95574.47737350632</v>
       </c>
       <c r="AE7" t="n">
-        <v>100454.7888215903</v>
+        <v>130769.2163907367</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.070267295241108e-06</v>
+        <v>8.15884002730874e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.069010416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>90867.52476566442</v>
+        <v>118288.7859141874</v>
       </c>
     </row>
     <row r="8">
@@ -16326,28 +16326,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>73.55294770697874</v>
+        <v>95.70866333917596</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.6383879796864</v>
+        <v>130.9528155488328</v>
       </c>
       <c r="AC8" t="n">
-        <v>91.03360147779492</v>
+        <v>118.4548626263179</v>
       </c>
       <c r="AD8" t="n">
-        <v>73552.94770697874</v>
+        <v>95708.66333917595</v>
       </c>
       <c r="AE8" t="n">
-        <v>100638.3879796864</v>
+        <v>130952.8155488328</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.064489281157887e-06</v>
+        <v>8.147258013361976e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.075520833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>91033.60147779492</v>
+        <v>118454.8626263179</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.79457019457303</v>
+        <v>96.17040906288845</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.3372306437303</v>
+        <v>131.5845964187995</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.57030898232365</v>
+        <v>119.0263472167653</v>
       </c>
       <c r="AD2" t="n">
-        <v>74794.57019457303</v>
+        <v>96170.40906288846</v>
       </c>
       <c r="AE2" t="n">
-        <v>102337.2306437303</v>
+        <v>131584.5964187995</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.781010574990188e-06</v>
+        <v>7.910110579404747e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.563802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>92570.30898232365</v>
+        <v>119026.3472167653</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.93212925526201</v>
+        <v>92.13737592298524</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.0524685516995</v>
+        <v>126.0664225519219</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.78991716714444</v>
+        <v>114.034820118935</v>
       </c>
       <c r="AD3" t="n">
-        <v>70932.12925526201</v>
+        <v>92137.37592298524</v>
       </c>
       <c r="AE3" t="n">
-        <v>97052.46855169951</v>
+        <v>126066.4225519219</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.158045752451657e-06</v>
+        <v>8.698891749648752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.153645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>87789.91716714443</v>
+        <v>114034.8201189351</v>
       </c>
     </row>
     <row r="4">
@@ -16835,28 +16835,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.48119549707565</v>
+        <v>90.68644216479888</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.06723697307017</v>
+        <v>124.0811909732926</v>
       </c>
       <c r="AC4" t="n">
-        <v>85.99415330408881</v>
+        <v>112.2390562558794</v>
       </c>
       <c r="AD4" t="n">
-        <v>69481.19549707565</v>
+        <v>90686.44216479888</v>
       </c>
       <c r="AE4" t="n">
-        <v>95067.23697307016</v>
+        <v>124081.1909732926</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.280171211480317e-06</v>
+        <v>8.954385847408519e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.029947916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>85994.15330408882</v>
+        <v>112239.0562558794</v>
       </c>
     </row>
     <row r="5">
@@ -16941,28 +16941,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.86744235258379</v>
+        <v>90.07268902030704</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.22747284389906</v>
+        <v>123.2414268441215</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.2345350847892</v>
+        <v>111.4794380365798</v>
       </c>
       <c r="AD5" t="n">
-        <v>68867.44235258379</v>
+        <v>90072.68902030704</v>
       </c>
       <c r="AE5" t="n">
-        <v>94227.47284389907</v>
+        <v>123241.4268441215</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.279773495048395e-06</v>
+        <v>8.953553799760582e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>85234.5350847892</v>
+        <v>111479.4380365798</v>
       </c>
     </row>
     <row r="6">
@@ -17047,28 +17047,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>68.76569584024969</v>
+        <v>89.97094250797294</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.08825877698432</v>
+        <v>123.1022127772067</v>
       </c>
       <c r="AC6" t="n">
-        <v>85.10860741303257</v>
+        <v>111.3535103648232</v>
       </c>
       <c r="AD6" t="n">
-        <v>68765.6958402497</v>
+        <v>89970.94250797294</v>
       </c>
       <c r="AE6" t="n">
-        <v>94088.25877698432</v>
+        <v>123102.2127772067</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.308965881151425e-06</v>
+        <v>9.014626097119139e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.00390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>85108.60741303257</v>
+        <v>111353.5103648232</v>
       </c>
     </row>
   </sheetData>
@@ -31301,28 +31301,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.62443413934679</v>
+        <v>89.06995319911393</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.89497828578266</v>
+        <v>121.8694394559835</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.93377334064024</v>
+        <v>110.2383911991689</v>
       </c>
       <c r="AD2" t="n">
-        <v>68624.43413934679</v>
+        <v>89069.95319911392</v>
       </c>
       <c r="AE2" t="n">
-        <v>93894.97828578265</v>
+        <v>121869.4394559835</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.137808845843431e-06</v>
+        <v>8.994999634101346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.31640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>84933.77334064024</v>
+        <v>110238.3911991689</v>
       </c>
     </row>
     <row r="3">
@@ -31407,28 +31407,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.97018416974673</v>
+        <v>86.41570322951387</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.26331638013333</v>
+        <v>118.2377775503342</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.64871215019544</v>
+        <v>106.9533300087241</v>
       </c>
       <c r="AD3" t="n">
-        <v>65970.18416974673</v>
+        <v>86415.70322951386</v>
       </c>
       <c r="AE3" t="n">
-        <v>90263.31638013333</v>
+        <v>118237.7775503342</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.424266416627059e-06</v>
+        <v>9.617717077168504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>81648.71215019544</v>
+        <v>106953.3300087241</v>
       </c>
     </row>
     <row r="4">
@@ -31513,28 +31513,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.74758355725358</v>
+        <v>75.2783539630413</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.90805911593171</v>
+        <v>102.9991649387818</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.75893908804542</v>
+        <v>93.16906919728628</v>
       </c>
       <c r="AD4" t="n">
-        <v>54747.58355725358</v>
+        <v>75278.3539630413</v>
       </c>
       <c r="AE4" t="n">
-        <v>74908.05911593171</v>
+        <v>102999.1649387818</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.509731927021714e-06</v>
+        <v>9.803506770063685e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>67758.93908804543</v>
+        <v>93169.06919728627</v>
       </c>
     </row>
   </sheetData>
@@ -31810,28 +31810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.19675778739037</v>
+        <v>77.13626112345067</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.62737146443013</v>
+        <v>105.5412354807317</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.02784688960114</v>
+        <v>95.46852809453175</v>
       </c>
       <c r="AD2" t="n">
-        <v>58196.75778739036</v>
+        <v>77136.26112345066</v>
       </c>
       <c r="AE2" t="n">
-        <v>79627.37146443012</v>
+        <v>105541.2354807317</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.784590858277961e-06</v>
+        <v>1.13802783658401e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.00390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>72027.84688960113</v>
+        <v>95468.52809453175</v>
       </c>
     </row>
     <row r="3">
@@ -31916,28 +31916,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.33201689563828</v>
+        <v>77.27152023169859</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.81243894354554</v>
+        <v>105.7263029598472</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.19525178825367</v>
+        <v>95.6359329931843</v>
       </c>
       <c r="AD3" t="n">
-        <v>58332.01689563828</v>
+        <v>77271.52023169858</v>
       </c>
       <c r="AE3" t="n">
-        <v>79812.43894354554</v>
+        <v>105726.3029598472</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.78568008512968e-06</v>
+        <v>1.138286912127631e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.00390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>72195.25178825368</v>
+        <v>95635.93299318429</v>
       </c>
     </row>
   </sheetData>
@@ -32213,28 +32213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.6277808268067</v>
+        <v>124.6743829376646</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.0516132284388</v>
+        <v>170.5849909808257</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.7807224221189</v>
+        <v>154.3045988592016</v>
       </c>
       <c r="AD2" t="n">
-        <v>101627.7808268067</v>
+        <v>124674.3829376646</v>
       </c>
       <c r="AE2" t="n">
-        <v>139051.6132284388</v>
+        <v>170584.9909808257</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.09795169418506e-06</v>
+        <v>6.011817506862805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.17578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>125780.7224221189</v>
+        <v>154304.5988592016</v>
       </c>
     </row>
     <row r="3">
@@ -32319,28 +32319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.28859152616577</v>
+        <v>107.4204449830442</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.3273694762694</v>
+        <v>146.9773918813055</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.3206871964638</v>
+        <v>132.9500758842587</v>
       </c>
       <c r="AD3" t="n">
-        <v>84288.59152616578</v>
+        <v>107420.4449830442</v>
       </c>
       <c r="AE3" t="n">
-        <v>115327.3694762694</v>
+        <v>146977.3918813055</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.492350598630124e-06</v>
+        <v>6.777179420956199e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.58984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>104320.6871964638</v>
+        <v>132950.0758842587</v>
       </c>
     </row>
     <row r="4">
@@ -32425,28 +32425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.53560072196534</v>
+        <v>105.4968619782516</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.9288501214674</v>
+        <v>144.3454607516567</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.1510791625403</v>
+        <v>130.5693325676842</v>
       </c>
       <c r="AD4" t="n">
-        <v>82535.60072196534</v>
+        <v>105496.8619782516</v>
       </c>
       <c r="AE4" t="n">
-        <v>112928.8501214674</v>
+        <v>144345.4607516567</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.623275278645034e-06</v>
+        <v>7.031249000178962e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.420572916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>102151.0791625403</v>
+        <v>130569.3325676842</v>
       </c>
     </row>
     <row r="5">
@@ -32531,28 +32531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.26490940984394</v>
+        <v>104.2261706661302</v>
       </c>
       <c r="AB5" t="n">
-        <v>111.1902342092796</v>
+        <v>142.6068448394688</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.5783943128483</v>
+        <v>128.9966477179922</v>
       </c>
       <c r="AD5" t="n">
-        <v>81264.90940984394</v>
+        <v>104226.1706661302</v>
       </c>
       <c r="AE5" t="n">
-        <v>111190.2342092796</v>
+        <v>142606.8448394688</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.708162133983772e-06</v>
+        <v>7.195978580690449e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>100578.3943128483</v>
+        <v>128996.6477179922</v>
       </c>
     </row>
     <row r="6">
@@ -32637,28 +32637,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>80.14287298179933</v>
+        <v>103.1041342380856</v>
       </c>
       <c r="AB6" t="n">
-        <v>109.6550144676761</v>
+        <v>141.0716250978653</v>
       </c>
       <c r="AC6" t="n">
-        <v>99.18969378868849</v>
+        <v>127.6079471938324</v>
       </c>
       <c r="AD6" t="n">
-        <v>80142.87298179933</v>
+        <v>103104.1342380856</v>
       </c>
       <c r="AE6" t="n">
-        <v>109655.0144676761</v>
+        <v>141071.6250978653</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.769833123723777e-06</v>
+        <v>7.315655958643255e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.251302083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>99189.69378868848</v>
+        <v>127607.9471938324</v>
       </c>
     </row>
     <row r="7">
@@ -32743,28 +32743,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>79.61463113170562</v>
+        <v>102.5758923879919</v>
       </c>
       <c r="AB7" t="n">
-        <v>108.9322506639925</v>
+        <v>140.3488612941818</v>
       </c>
       <c r="AC7" t="n">
-        <v>98.53590954802293</v>
+        <v>126.9541629531669</v>
       </c>
       <c r="AD7" t="n">
-        <v>79614.63113170562</v>
+        <v>102575.8923879919</v>
       </c>
       <c r="AE7" t="n">
-        <v>108932.2506639925</v>
+        <v>140348.8612941818</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.789503830630868e-06</v>
+        <v>7.353828503547163e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.231770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>98535.90954802293</v>
+        <v>126954.1629531669</v>
       </c>
     </row>
     <row r="8">
@@ -32849,28 +32849,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>78.71092195834699</v>
+        <v>101.6721832146333</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.6957559041689</v>
+        <v>139.1123665343582</v>
       </c>
       <c r="AC8" t="n">
-        <v>97.41742411264521</v>
+        <v>125.8356775177891</v>
       </c>
       <c r="AD8" t="n">
-        <v>78710.92195834698</v>
+        <v>101672.1832146333</v>
       </c>
       <c r="AE8" t="n">
-        <v>107695.7559041689</v>
+        <v>139112.3665343582</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.829460723384573e-06</v>
+        <v>7.43136797836449e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.186197916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>97417.42411264521</v>
+        <v>125835.6775177891</v>
       </c>
     </row>
     <row r="9">
@@ -32955,28 +32955,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>78.52287689555236</v>
+        <v>101.4841381518386</v>
       </c>
       <c r="AB9" t="n">
-        <v>107.4384643532908</v>
+        <v>138.8550749834801</v>
       </c>
       <c r="AC9" t="n">
-        <v>97.18468810627182</v>
+        <v>125.6029415114158</v>
       </c>
       <c r="AD9" t="n">
-        <v>78522.87689555236</v>
+        <v>101484.1381518386</v>
       </c>
       <c r="AE9" t="n">
-        <v>107438.4643532908</v>
+        <v>138855.07498348</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.820203920134177e-06</v>
+        <v>7.413404427821475e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>97184.68810627182</v>
+        <v>125602.9415114157</v>
       </c>
     </row>
     <row r="10">
@@ -33061,28 +33061,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>77.75604388708145</v>
+        <v>100.7173051433677</v>
       </c>
       <c r="AB10" t="n">
-        <v>106.3892496008167</v>
+        <v>137.8058602310059</v>
       </c>
       <c r="AC10" t="n">
-        <v>96.23560893719137</v>
+        <v>124.6538623423353</v>
       </c>
       <c r="AD10" t="n">
-        <v>77756.04388708144</v>
+        <v>100717.3051433677</v>
       </c>
       <c r="AE10" t="n">
-        <v>106389.2496008167</v>
+        <v>137805.8602310059</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.854941551480743e-06</v>
+        <v>7.480815517758165e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.16015625</v>
       </c>
       <c r="AH10" t="n">
-        <v>96235.60893719137</v>
+        <v>124653.8623423353</v>
       </c>
     </row>
   </sheetData>
@@ -33358,28 +33358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.8280288559006</v>
+        <v>151.7885209682735</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.4810190525642</v>
+        <v>207.6837508256332</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.3558130237383</v>
+        <v>187.862705132869</v>
       </c>
       <c r="AD2" t="n">
-        <v>115828.0288559006</v>
+        <v>151788.5209682735</v>
       </c>
       <c r="AE2" t="n">
-        <v>158481.0190525643</v>
+        <v>207683.7508256332</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.639723910319937e-06</v>
+        <v>4.953157432674675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.852864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>143355.8130237383</v>
+        <v>187862.705132869</v>
       </c>
     </row>
     <row r="3">
@@ -33464,28 +33464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.92143602236011</v>
+        <v>128.7965872801614</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.1392081701764</v>
+        <v>176.2251728210477</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.0052205834477</v>
+        <v>159.4064896606396</v>
       </c>
       <c r="AD3" t="n">
-        <v>92921.43602236011</v>
+        <v>128796.5872801614</v>
       </c>
       <c r="AE3" t="n">
-        <v>127139.2081701764</v>
+        <v>176225.1728210477</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.144424109550149e-06</v>
+        <v>5.900172964608289e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.908854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>115005.2205834477</v>
+        <v>159406.4896606395</v>
       </c>
     </row>
     <row r="4">
@@ -33570,28 +33570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.1046130458417</v>
+        <v>125.979764303643</v>
       </c>
       <c r="AB4" t="n">
-        <v>123.2851067042466</v>
+        <v>172.3710713551179</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.5189491521597</v>
+        <v>155.9202182293515</v>
       </c>
       <c r="AD4" t="n">
-        <v>90104.6130458417</v>
+        <v>125979.764303643</v>
       </c>
       <c r="AE4" t="n">
-        <v>123285.1067042466</v>
+        <v>172371.0713551179</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.314405162830418e-06</v>
+        <v>6.219124092102145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.661458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>111518.9491521597</v>
+        <v>155920.2182293515</v>
       </c>
     </row>
     <row r="5">
@@ -33676,28 +33676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.76371119401976</v>
+        <v>112.82271345684</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.4504256341701</v>
+        <v>154.3690139384136</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.8593674684196</v>
+        <v>139.6362519064455</v>
       </c>
       <c r="AD5" t="n">
-        <v>88763.71119401976</v>
+        <v>112822.71345684</v>
       </c>
       <c r="AE5" t="n">
-        <v>121450.4256341701</v>
+        <v>154369.0139384136</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.391531248554655e-06</v>
+        <v>6.363842880027132e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>109859.3674684196</v>
+        <v>139636.2519064455</v>
       </c>
     </row>
     <row r="6">
@@ -33782,28 +33782,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>87.79362924361742</v>
+        <v>111.6820393058455</v>
       </c>
       <c r="AB6" t="n">
-        <v>120.1231167126351</v>
+        <v>152.8082932420318</v>
       </c>
       <c r="AC6" t="n">
-        <v>108.6587350474657</v>
+        <v>138.2244842028406</v>
       </c>
       <c r="AD6" t="n">
-        <v>87793.62924361741</v>
+        <v>111682.0393058455</v>
       </c>
       <c r="AE6" t="n">
-        <v>120123.1167126351</v>
+        <v>152808.2932420318</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.445313111469711e-06</v>
+        <v>6.464758749675225e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.485677083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>108658.7350474657</v>
+        <v>138224.4842028406</v>
       </c>
     </row>
     <row r="7">
@@ -33888,28 +33888,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>86.66106392796031</v>
+        <v>110.5494739901884</v>
       </c>
       <c r="AB7" t="n">
-        <v>118.5734908824985</v>
+        <v>151.2586674118952</v>
       </c>
       <c r="AC7" t="n">
-        <v>107.2570033316434</v>
+        <v>136.8227524870182</v>
       </c>
       <c r="AD7" t="n">
-        <v>86661.06392796032</v>
+        <v>110549.4739901884</v>
       </c>
       <c r="AE7" t="n">
-        <v>118573.4908824985</v>
+        <v>151258.6674118952</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.507137343828173e-06</v>
+        <v>6.580765258851636e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.401041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>107257.0033316434</v>
+        <v>136822.7524870182</v>
       </c>
     </row>
     <row r="8">
@@ -33994,28 +33994,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>85.84863478017232</v>
+        <v>109.7370448424004</v>
       </c>
       <c r="AB8" t="n">
-        <v>117.4618894806511</v>
+        <v>150.1470660100478</v>
       </c>
       <c r="AC8" t="n">
-        <v>106.2514916074455</v>
+        <v>135.8172407628204</v>
       </c>
       <c r="AD8" t="n">
-        <v>85848.63478017232</v>
+        <v>109737.0448424004</v>
       </c>
       <c r="AE8" t="n">
-        <v>117461.8894806511</v>
+        <v>150147.0660100478</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.544241372764717e-06</v>
+        <v>6.650386970421823e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.35546875</v>
       </c>
       <c r="AH8" t="n">
-        <v>106251.4916074455</v>
+        <v>135817.2407628204</v>
       </c>
     </row>
     <row r="9">
@@ -34100,28 +34100,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>85.80868146752587</v>
+        <v>109.6970915297539</v>
       </c>
       <c r="AB9" t="n">
-        <v>117.4072235956725</v>
+        <v>150.0924001250692</v>
       </c>
       <c r="AC9" t="n">
-        <v>106.2020429578052</v>
+        <v>135.7677921131801</v>
       </c>
       <c r="AD9" t="n">
-        <v>85808.68146752588</v>
+        <v>109697.0915297539</v>
       </c>
       <c r="AE9" t="n">
-        <v>117407.2235956725</v>
+        <v>150092.4001250692</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.531359347373066e-06</v>
+        <v>6.62621523808e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH9" t="n">
-        <v>106202.0429578052</v>
+        <v>135767.7921131801</v>
       </c>
     </row>
     <row r="10">
@@ -34206,28 +34206,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>85.21909051283791</v>
+        <v>109.1075005750659</v>
       </c>
       <c r="AB10" t="n">
-        <v>116.6005192405516</v>
+        <v>149.2856957699483</v>
       </c>
       <c r="AC10" t="n">
-        <v>105.4723293341202</v>
+        <v>135.038078489495</v>
       </c>
       <c r="AD10" t="n">
-        <v>85219.09051283791</v>
+        <v>109107.5005750659</v>
       </c>
       <c r="AE10" t="n">
-        <v>116600.5192405516</v>
+        <v>149285.6957699484</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.561251339994578e-06</v>
+        <v>6.682304340751634e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.3359375</v>
       </c>
       <c r="AH10" t="n">
-        <v>105472.3293341202</v>
+        <v>135038.078489495</v>
       </c>
     </row>
     <row r="11">
@@ -34312,28 +34312,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>84.9368860880662</v>
+        <v>108.8252961502942</v>
       </c>
       <c r="AB11" t="n">
-        <v>116.2143946965986</v>
+        <v>148.8995712259953</v>
       </c>
       <c r="AC11" t="n">
-        <v>105.1230559747127</v>
+        <v>134.6888051300876</v>
       </c>
       <c r="AD11" t="n">
-        <v>84936.8860880662</v>
+        <v>108825.2961502942</v>
       </c>
       <c r="AE11" t="n">
-        <v>116214.3946965986</v>
+        <v>148899.5712259953</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.55811979791042e-06</v>
+        <v>6.676428339519368e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.342447916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>105123.0559747127</v>
+        <v>134688.8051300876</v>
       </c>
     </row>
     <row r="12">
@@ -34418,28 +34418,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>84.08498829075441</v>
+        <v>107.9733983529824</v>
       </c>
       <c r="AB12" t="n">
-        <v>115.0487905472389</v>
+        <v>147.7339670766356</v>
       </c>
       <c r="AC12" t="n">
-        <v>104.0686954494318</v>
+        <v>133.6344446048067</v>
       </c>
       <c r="AD12" t="n">
-        <v>84084.98829075441</v>
+        <v>107973.3983529824</v>
       </c>
       <c r="AE12" t="n">
-        <v>115048.7905472389</v>
+        <v>147733.9670766356</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.592993789302185e-06</v>
+        <v>6.741865625969608e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH12" t="n">
-        <v>104068.6954494318</v>
+        <v>133634.4446048067</v>
       </c>
     </row>
     <row r="13">
@@ -34524,28 +34524,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>83.8845759478056</v>
+        <v>107.7729860100336</v>
       </c>
       <c r="AB13" t="n">
-        <v>114.7745775380479</v>
+        <v>147.4597540674446</v>
       </c>
       <c r="AC13" t="n">
-        <v>103.8206529449776</v>
+        <v>133.3864021003524</v>
       </c>
       <c r="AD13" t="n">
-        <v>83884.5759478056</v>
+        <v>107772.9860100336</v>
       </c>
       <c r="AE13" t="n">
-        <v>114774.5775380479</v>
+        <v>147459.7540674446</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.589672456788683e-06</v>
+        <v>6.735633503450537e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.303385416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>103820.6529449776</v>
+        <v>133386.4021003524</v>
       </c>
     </row>
     <row r="14">
@@ -34630,28 +34630,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>83.34389295417857</v>
+        <v>107.2323030164066</v>
       </c>
       <c r="AB14" t="n">
-        <v>114.0347912129176</v>
+        <v>146.7199677423143</v>
       </c>
       <c r="AC14" t="n">
-        <v>103.1514707884208</v>
+        <v>132.7172199437957</v>
       </c>
       <c r="AD14" t="n">
-        <v>83343.89295417858</v>
+        <v>107232.3030164066</v>
       </c>
       <c r="AE14" t="n">
-        <v>114034.7912129176</v>
+        <v>146719.9677423143</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.592543037032496e-06</v>
+        <v>6.741019837913449e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH14" t="n">
-        <v>103151.4707884208</v>
+        <v>132717.2199437957</v>
       </c>
     </row>
   </sheetData>
@@ -34927,28 +34927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.85826007522133</v>
+        <v>73.09339465566728</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.05949161051848</v>
+        <v>100.0096072208327</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.89591907788574</v>
+        <v>90.46483067206665</v>
       </c>
       <c r="AD2" t="n">
-        <v>54858.26007522133</v>
+        <v>73093.39465566729</v>
       </c>
       <c r="AE2" t="n">
-        <v>75059.49161051848</v>
+        <v>100009.6072208327</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.861844983208289e-06</v>
+        <v>1.215910533986512e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.08203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>67895.91907788573</v>
+        <v>90464.83067206666</v>
       </c>
     </row>
   </sheetData>
@@ -35224,28 +35224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.76004807401856</v>
+        <v>110.1165481424753</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.3947283060363</v>
+        <v>150.666319167714</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.24056476247424</v>
+        <v>136.2869371278955</v>
       </c>
       <c r="AD2" t="n">
-        <v>77760.04807401856</v>
+        <v>110116.5481424753</v>
       </c>
       <c r="AE2" t="n">
-        <v>106394.7283060363</v>
+        <v>150666.319167714</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.626795881058326e-06</v>
+        <v>7.468600763838139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>96240.56476247424</v>
+        <v>136286.9371278955</v>
       </c>
     </row>
     <row r="3">
@@ -35330,28 +35330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.55733219222427</v>
+        <v>95.09997479488923</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.6443870258292</v>
+        <v>130.1199810290968</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.03902798339355</v>
+        <v>117.7015126642547</v>
       </c>
       <c r="AD3" t="n">
-        <v>73557.33219222426</v>
+        <v>95099.97479488923</v>
       </c>
       <c r="AE3" t="n">
-        <v>100644.3870258292</v>
+        <v>130119.9810290968</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.009074051319363e-06</v>
+        <v>8.255819876256755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.244791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>91039.02798339355</v>
+        <v>117701.5126642547</v>
       </c>
     </row>
     <row r="4">
@@ -35436,28 +35436,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.08128273493264</v>
+        <v>93.62392533759761</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.62479103965759</v>
+        <v>128.1003850429252</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.21217940362077</v>
+        <v>115.8746640844819</v>
       </c>
       <c r="AD4" t="n">
-        <v>72081.28273493264</v>
+        <v>93623.92533759761</v>
       </c>
       <c r="AE4" t="n">
-        <v>98624.79103965759</v>
+        <v>128100.3850429252</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.128713976247618e-06</v>
+        <v>8.502192394592128e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.12109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>89212.17940362077</v>
+        <v>115874.6640844819</v>
       </c>
     </row>
     <row r="5">
@@ -35542,28 +35542,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.06466618048027</v>
+        <v>92.60730878314524</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.23381141989952</v>
+        <v>126.7094054231671</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.9539529265198</v>
+        <v>114.616437607381</v>
       </c>
       <c r="AD5" t="n">
-        <v>71064.66618048027</v>
+        <v>92607.30878314524</v>
       </c>
       <c r="AE5" t="n">
-        <v>97233.81141989952</v>
+        <v>126709.4054231671</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.178069691073884e-06</v>
+        <v>8.603829801697504e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.069010416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>87953.95292651981</v>
+        <v>114616.437607381</v>
       </c>
     </row>
     <row r="6">
@@ -35648,28 +35648,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.47757300010217</v>
+        <v>92.02021560276714</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.43052462978346</v>
+        <v>125.9061186330511</v>
       </c>
       <c r="AC6" t="n">
-        <v>87.22733070023207</v>
+        <v>113.8898153810932</v>
       </c>
       <c r="AD6" t="n">
-        <v>70477.57300010217</v>
+        <v>92020.21560276714</v>
       </c>
       <c r="AE6" t="n">
-        <v>96430.52462978347</v>
+        <v>125906.1186330511</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.216451663058947e-06</v>
+        <v>8.682869161696338e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.036458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>87227.33070023208</v>
+        <v>113889.8153810932</v>
       </c>
     </row>
   </sheetData>
@@ -35945,28 +35945,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.36000360105974</v>
+        <v>119.0585847328083</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.7933227445034</v>
+        <v>162.9012081254138</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.6467319422563</v>
+        <v>147.3541454552509</v>
       </c>
       <c r="AD2" t="n">
-        <v>85360.00360105974</v>
+        <v>119058.5847328083</v>
       </c>
       <c r="AE2" t="n">
-        <v>116793.3227445034</v>
+        <v>162901.2081254138</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.284846573622965e-06</v>
+        <v>6.507885841306076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>105646.7319422563</v>
+        <v>147354.1454552509</v>
       </c>
     </row>
     <row r="3">
@@ -36051,28 +36051,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.6472918988686</v>
+        <v>103.0846552103948</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.345182683402</v>
+        <v>141.0449730328247</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.81399331856292</v>
+        <v>127.583838764473</v>
       </c>
       <c r="AD3" t="n">
-        <v>80647.2918988686</v>
+        <v>103084.6552103948</v>
       </c>
       <c r="AE3" t="n">
-        <v>110345.182683402</v>
+        <v>141044.9730328248</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.645150580132347e-06</v>
+        <v>7.221714414414162e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.4921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>99813.99331856292</v>
+        <v>127583.838764473</v>
       </c>
     </row>
     <row r="4">
@@ -36157,28 +36157,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.40988882313488</v>
+        <v>100.8472521346611</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.2838690879273</v>
+        <v>137.9836594373501</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.04484719605878</v>
+        <v>124.8146926419688</v>
       </c>
       <c r="AD4" t="n">
-        <v>78409.88882313488</v>
+        <v>100847.2521346611</v>
       </c>
       <c r="AE4" t="n">
-        <v>107283.8690879273</v>
+        <v>137983.6594373501</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.815001355245895e-06</v>
+        <v>7.558220071443121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.290364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>97044.84719605878</v>
+        <v>124814.6926419688</v>
       </c>
     </row>
     <row r="5">
@@ -36263,28 +36263,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>77.00818906006273</v>
+        <v>99.44555237158897</v>
       </c>
       <c r="AB5" t="n">
-        <v>105.3660016334638</v>
+        <v>136.0657919828866</v>
       </c>
       <c r="AC5" t="n">
-        <v>95.31001831970474</v>
+        <v>123.0798637656148</v>
       </c>
       <c r="AD5" t="n">
-        <v>77008.18906006274</v>
+        <v>99445.55237158897</v>
       </c>
       <c r="AE5" t="n">
-        <v>105366.0016334638</v>
+        <v>136065.7919828866</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.912403932443713e-06</v>
+        <v>7.751192509834136e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.186197916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>95310.01831970474</v>
+        <v>123079.8637656148</v>
       </c>
     </row>
     <row r="6">
@@ -36369,28 +36369,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>76.53176752394461</v>
+        <v>98.96913083547085</v>
       </c>
       <c r="AB6" t="n">
-        <v>104.7141406695125</v>
+        <v>135.4139310189353</v>
       </c>
       <c r="AC6" t="n">
-        <v>94.72037005126016</v>
+        <v>122.4902154971702</v>
       </c>
       <c r="AD6" t="n">
-        <v>76531.76752394461</v>
+        <v>98969.13083547085</v>
       </c>
       <c r="AE6" t="n">
-        <v>104714.1406695125</v>
+        <v>135413.9310189353</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.920529199084956e-06</v>
+        <v>7.767290159007768e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.1796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>94720.37005126016</v>
+        <v>122490.2154971702</v>
       </c>
     </row>
     <row r="7">
@@ -36475,28 +36475,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>75.81686315929034</v>
+        <v>98.25422647081659</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.7359769784384</v>
+        <v>134.4357673278612</v>
       </c>
       <c r="AC7" t="n">
-        <v>93.8355609300005</v>
+        <v>121.6054063759105</v>
       </c>
       <c r="AD7" t="n">
-        <v>75816.86315929034</v>
+        <v>98254.22647081659</v>
       </c>
       <c r="AE7" t="n">
-        <v>103735.9769784384</v>
+        <v>134435.7673278612</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.943068638436516e-06</v>
+        <v>7.811944938139573e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.153645833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>93835.5609300005</v>
+        <v>121605.4063759105</v>
       </c>
     </row>
     <row r="8">
@@ -36581,28 +36581,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>75.24740919080256</v>
+        <v>97.6847725023288</v>
       </c>
       <c r="AB8" t="n">
-        <v>102.9568249362178</v>
+        <v>133.6566152856406</v>
       </c>
       <c r="AC8" t="n">
-        <v>93.1307700651424</v>
+        <v>120.9006155110524</v>
       </c>
       <c r="AD8" t="n">
-        <v>75247.40919080256</v>
+        <v>97684.77250232879</v>
       </c>
       <c r="AE8" t="n">
-        <v>102956.8249362178</v>
+        <v>133656.6152856406</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.978739313660304e-06</v>
+        <v>7.882615113149504e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>93130.77006514239</v>
+        <v>120900.6155110524</v>
       </c>
     </row>
     <row r="9">
@@ -36687,28 +36687,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>75.23179242268436</v>
+        <v>97.66915573421059</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.9354573851153</v>
+        <v>133.6352477345381</v>
       </c>
       <c r="AC9" t="n">
-        <v>93.11144180312758</v>
+        <v>120.8812872490376</v>
       </c>
       <c r="AD9" t="n">
-        <v>75231.79242268436</v>
+        <v>97669.1557342106</v>
       </c>
       <c r="AE9" t="n">
-        <v>102935.4573851153</v>
+        <v>133635.2477345381</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.976651396845372e-06</v>
+        <v>7.878478565529037e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.12109375</v>
       </c>
       <c r="AH9" t="n">
-        <v>93111.44180312757</v>
+        <v>120881.2872490376</v>
       </c>
     </row>
   </sheetData>
